--- a/exceles_info/classification_reports.xlsx
+++ b/exceles_info/classification_reports.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.43</v>
+        <v>0.5194805194805194</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09492273730684327</v>
+        <v>0.182648401826484</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1555153707052441</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="E2" t="n">
-        <v>453</v>
+        <v>876</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -489,16 +489,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9004371053909664</v>
+        <v>0.8168797953964194</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9848605577689243</v>
+        <v>0.9557151406343507</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9407585944437397</v>
+        <v>0.8808604522890238</v>
       </c>
       <c r="E3" t="n">
-        <v>3765</v>
+        <v>3342</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -511,16 +511,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8892840208629682</v>
+        <v>0.7951635846372689</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8892840208629682</v>
+        <v>0.7951635846372689</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8892840208629682</v>
+        <v>0.7951635846372689</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8892840208629682</v>
+        <v>0.7951635846372689</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -533,13 +533,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6652185526954832</v>
+        <v>0.6681801574384694</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5398916475378838</v>
+        <v>0.5691817712304174</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5481369825744919</v>
+        <v>0.575565361279647</v>
       </c>
       <c r="E5" t="n">
         <v>4218</v>
@@ -555,13 +555,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8499136324791343</v>
+        <v>0.7551155076528612</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8892840208629682</v>
+        <v>0.7951635846372689</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8564259295898898</v>
+        <v>0.754052249480008</v>
       </c>
       <c r="E6" t="n">
         <v>4218</v>
@@ -577,19 +577,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9640047675804529</v>
+        <v>0.9940603468757424</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9965500246426812</v>
+        <v>0.9990448901623686</v>
       </c>
       <c r="D7" t="n">
-        <v>0.980007270083606</v>
+        <v>0.9965463856139097</v>
       </c>
       <c r="E7" t="n">
-        <v>4058</v>
+        <v>4188</v>
       </c>
       <c r="F7" t="n">
-        <v>144050</v>
+        <v>111200</v>
       </c>
     </row>
     <row r="8">
@@ -599,19 +599,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.391304347826087</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05625</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="D8" t="n">
-        <v>0.09836065573770492</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="E8" t="n">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="F8" t="n">
-        <v>144050</v>
+        <v>111200</v>
       </c>
     </row>
     <row r="9">
@@ -621,19 +621,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9608819345661451</v>
+        <v>0.9931247036510195</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9608819345661451</v>
+        <v>0.9931247036510195</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9608819345661451</v>
+        <v>0.9931247036510195</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9608819345661451</v>
+        <v>0.9931247036510195</v>
       </c>
       <c r="F9" t="n">
-        <v>144050</v>
+        <v>111200</v>
       </c>
     </row>
     <row r="10">
@@ -643,19 +643,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.67765455770327</v>
+        <v>0.7748079512156489</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5264000123213406</v>
+        <v>0.5828557784145176</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5391839629106554</v>
+        <v>0.626478321012083</v>
       </c>
       <c r="E10" t="n">
         <v>4218</v>
       </c>
       <c r="F10" t="n">
-        <v>144050</v>
+        <v>111200</v>
       </c>
     </row>
     <row r="11">
@@ -665,19 +665,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9422807118287463</v>
+        <v>0.9909415361266657</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9608819345661451</v>
+        <v>0.9931247036510195</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9465640604355871</v>
+        <v>0.9912822595171553</v>
       </c>
       <c r="E11" t="n">
         <v>4218</v>
       </c>
       <c r="F11" t="n">
-        <v>144050</v>
+        <v>111200</v>
       </c>
     </row>
     <row r="12">
@@ -687,19 +687,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9881432297842068</v>
+        <v>0.991674595623216</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9997600767754319</v>
+        <v>0.998323754789272</v>
       </c>
       <c r="D12" t="n">
-        <v>0.99391771019678</v>
+        <v>0.9949880668257757</v>
       </c>
       <c r="E12" t="n">
-        <v>4168</v>
+        <v>4176</v>
       </c>
       <c r="F12" t="n">
-        <v>234050</v>
+        <v>132220</v>
       </c>
     </row>
     <row r="13">
@@ -709,19 +709,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E13" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F13" t="n">
-        <v>234050</v>
+        <v>132220</v>
       </c>
     </row>
     <row r="14">
@@ -731,19 +731,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9879089615931721</v>
+        <v>0.9900426742532006</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9879089615931721</v>
+        <v>0.9900426742532006</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9879089615931721</v>
+        <v>0.9900426742532006</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9879089615931721</v>
+        <v>0.9900426742532006</v>
       </c>
       <c r="F14" t="n">
-        <v>234050</v>
+        <v>132220</v>
       </c>
     </row>
     <row r="15">
@@ -753,19 +753,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4940716148921034</v>
+        <v>0.745837297811608</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4998800383877159</v>
+        <v>0.5824952107279694</v>
       </c>
       <c r="D15" t="n">
-        <v>0.49695885509839</v>
+        <v>0.6224940334128879</v>
       </c>
       <c r="E15" t="n">
         <v>4218</v>
       </c>
       <c r="F15" t="n">
-        <v>234050</v>
+        <v>132220</v>
       </c>
     </row>
     <row r="16">
@@ -775,19 +775,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9764298202324735</v>
+        <v>0.9867788315131698</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9879089615931721</v>
+        <v>0.9900426742532006</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9821358501897058</v>
+        <v>0.987569977966913</v>
       </c>
       <c r="E16" t="n">
         <v>4218</v>
       </c>
       <c r="F16" t="n">
-        <v>234050</v>
+        <v>132220</v>
       </c>
     </row>
     <row r="17">
@@ -797,19 +797,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9878686964795433</v>
+        <v>0.9928588431325874</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9971188475390156</v>
+        <v>0.9983245572044041</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9924722189030948</v>
+        <v>0.9955841985917174</v>
       </c>
       <c r="E17" t="n">
-        <v>4165</v>
+        <v>4178</v>
       </c>
       <c r="F17" t="n">
-        <v>237050</v>
+        <v>132310</v>
       </c>
     </row>
     <row r="18">
@@ -819,19 +819,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C18" t="n">
-        <v>0.03773584905660377</v>
+        <v>0.25</v>
       </c>
       <c r="D18" t="n">
-        <v>0.05970149253731343</v>
+        <v>0.3508771929824561</v>
       </c>
       <c r="E18" t="n">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="F18" t="n">
-        <v>237050</v>
+        <v>132310</v>
       </c>
     </row>
     <row r="19">
@@ -841,19 +841,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9850640113798008</v>
+        <v>0.9912280701754386</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9850640113798008</v>
+        <v>0.9912280701754386</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9850640113798008</v>
+        <v>0.9912280701754386</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9850640113798008</v>
+        <v>0.9912280701754386</v>
       </c>
       <c r="F19" t="n">
-        <v>237050</v>
+        <v>132310</v>
       </c>
     </row>
     <row r="20">
@@ -863,19 +863,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.5653629196683431</v>
+        <v>0.7905470686251173</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5174273482978097</v>
+        <v>0.6241622786022021</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5260868557202041</v>
+        <v>0.6732306957870868</v>
       </c>
       <c r="E20" t="n">
         <v>4218</v>
       </c>
       <c r="F20" t="n">
-        <v>237050</v>
+        <v>132310</v>
       </c>
     </row>
     <row r="21">
@@ -885,19 +885,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9772509600305183</v>
+        <v>0.9890217302922372</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9850640113798008</v>
+        <v>0.9912280701754386</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9807517711796745</v>
+        <v>0.9894703341478174</v>
       </c>
       <c r="E21" t="n">
         <v>4218</v>
       </c>
       <c r="F21" t="n">
-        <v>237050</v>
+        <v>132310</v>
       </c>
     </row>
     <row r="22">
@@ -907,19 +907,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9878686964795433</v>
+        <v>0.9821556031406139</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9971188475390156</v>
+        <v>0.9980657640232108</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9924722189030948</v>
+        <v>0.9900467681976256</v>
       </c>
       <c r="E22" t="n">
-        <v>4165</v>
+        <v>4136</v>
       </c>
       <c r="F22" t="n">
-        <v>253400</v>
+        <v>141090</v>
       </c>
     </row>
     <row r="23">
@@ -929,19 +929,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C23" t="n">
-        <v>0.03773584905660377</v>
+        <v>0.08536585365853659</v>
       </c>
       <c r="D23" t="n">
-        <v>0.05970149253731343</v>
+        <v>0.1443298969072165</v>
       </c>
       <c r="E23" t="n">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="F23" t="n">
-        <v>253400</v>
+        <v>141090</v>
       </c>
     </row>
     <row r="24">
@@ -951,19 +951,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9850640113798008</v>
+        <v>0.9803224276908488</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9850640113798008</v>
+        <v>0.9803224276908488</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9850640113798008</v>
+        <v>0.9803224276908488</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9850640113798008</v>
+        <v>0.9803224276908488</v>
       </c>
       <c r="F24" t="n">
-        <v>253400</v>
+        <v>141090</v>
       </c>
     </row>
     <row r="25">
@@ -973,19 +973,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.5653629196683431</v>
+        <v>0.7244111349036403</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5174273482978097</v>
+        <v>0.5417158088408737</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5260868557202041</v>
+        <v>0.5671883325524211</v>
       </c>
       <c r="E25" t="n">
         <v>4218</v>
       </c>
       <c r="F25" t="n">
-        <v>253400</v>
+        <v>141090</v>
       </c>
     </row>
     <row r="26">
@@ -995,19 +995,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9772509600305183</v>
+        <v>0.9721342440152313</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9850640113798008</v>
+        <v>0.9803224276908488</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9807517711796745</v>
+        <v>0.9736056151758585</v>
       </c>
       <c r="E26" t="n">
         <v>4218</v>
       </c>
       <c r="F26" t="n">
-        <v>253400</v>
+        <v>141090</v>
       </c>
     </row>
     <row r="27">
@@ -1017,19 +1017,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.9759923936296648</v>
+        <v>0.9928588431325874</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9973281515666748</v>
+        <v>0.9983245572044041</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9865449303219606</v>
+        <v>0.9955841985917174</v>
       </c>
       <c r="E27" t="n">
-        <v>4117</v>
+        <v>4178</v>
       </c>
       <c r="F27" t="n">
-        <v>408008</v>
+        <v>141100</v>
       </c>
     </row>
     <row r="28">
@@ -1039,19 +1039,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>0.3508771929824561</v>
       </c>
       <c r="E28" t="n">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="F28" t="n">
-        <v>408008</v>
+        <v>141100</v>
       </c>
     </row>
     <row r="29">
@@ -1061,19 +1061,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.9734471313418682</v>
+        <v>0.9912280701754386</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9734471313418682</v>
+        <v>0.9912280701754386</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9734471313418682</v>
+        <v>0.9912280701754386</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9734471313418682</v>
+        <v>0.9912280701754386</v>
       </c>
       <c r="F29" t="n">
-        <v>408008</v>
+        <v>141100</v>
       </c>
     </row>
     <row r="30">
@@ -1083,19 +1083,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.4879961968148324</v>
+        <v>0.7905470686251173</v>
       </c>
       <c r="C30" t="n">
-        <v>0.4986640757833374</v>
+        <v>0.6241622786022021</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4932724651609803</v>
+        <v>0.6732306957870868</v>
       </c>
       <c r="E30" t="n">
         <v>4218</v>
       </c>
       <c r="F30" t="n">
-        <v>408008</v>
+        <v>141100</v>
       </c>
     </row>
     <row r="31">
@@ -1105,19 +1105,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.9526222580780773</v>
+        <v>0.9890217302922372</v>
       </c>
       <c r="C31" t="n">
-        <v>0.9734471313418682</v>
+        <v>0.9912280701754386</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9629221143042939</v>
+        <v>0.9894703341478174</v>
       </c>
       <c r="E31" t="n">
         <v>4218</v>
       </c>
       <c r="F31" t="n">
-        <v>408008</v>
+        <v>141100</v>
       </c>
     </row>
     <row r="32">
@@ -1127,19 +1127,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.9635714285714285</v>
+        <v>0.9477077363896849</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9955719557195571</v>
+        <v>0.9949862120832289</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9793103448275862</v>
+        <v>0.9707716766540296</v>
       </c>
       <c r="E32" t="n">
-        <v>4065</v>
+        <v>3989</v>
       </c>
       <c r="F32" t="n">
-        <v>408011</v>
+        <v>144050</v>
       </c>
     </row>
     <row r="33">
@@ -1149,19 +1149,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>0.04366812227074236</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>0.07722007722007722</v>
       </c>
       <c r="E33" t="n">
-        <v>153</v>
+        <v>229</v>
       </c>
       <c r="F33" t="n">
-        <v>408011</v>
+        <v>144050</v>
       </c>
     </row>
     <row r="34">
@@ -1171,19 +1171,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.9594594594594594</v>
+        <v>0.9433380749170223</v>
       </c>
       <c r="C34" t="n">
-        <v>0.9594594594594594</v>
+        <v>0.9433380749170223</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9594594594594594</v>
+        <v>0.9433380749170223</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9594594594594594</v>
+        <v>0.9433380749170223</v>
       </c>
       <c r="F34" t="n">
-        <v>408011</v>
+        <v>144050</v>
       </c>
     </row>
     <row r="35">
@@ -1193,19 +1193,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.4817857142857143</v>
+        <v>0.6405205348615091</v>
       </c>
       <c r="C35" t="n">
-        <v>0.4977859778597786</v>
+        <v>0.5193271671769857</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4896551724137931</v>
+        <v>0.5239958769370534</v>
       </c>
       <c r="E35" t="n">
         <v>4218</v>
       </c>
       <c r="F35" t="n">
-        <v>408011</v>
+        <v>144050</v>
       </c>
     </row>
     <row r="36">
@@ -1215,19 +1215,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.9286196911196911</v>
+        <v>0.9143526538150276</v>
       </c>
       <c r="C36" t="n">
-        <v>0.9594594594594594</v>
+        <v>0.9433380749170223</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9437877078530436</v>
+        <v>0.9222597477136847</v>
       </c>
       <c r="E36" t="n">
         <v>4218</v>
       </c>
       <c r="F36" t="n">
-        <v>408011</v>
+        <v>144050</v>
       </c>
     </row>
     <row r="37">
@@ -1237,19 +1237,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.9855072463768116</v>
+        <v>0.9836182336182336</v>
       </c>
       <c r="C37" t="n">
-        <v>0.9980750721847931</v>
+        <v>0.9985538684020245</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9917513448894202</v>
+        <v>0.9910297811266595</v>
       </c>
       <c r="E37" t="n">
-        <v>4156</v>
+        <v>4149</v>
       </c>
       <c r="F37" t="n">
-        <v>632250</v>
+        <v>206015</v>
       </c>
     </row>
     <row r="38">
@@ -1259,19 +1259,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.01612903225806452</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.02816901408450704</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F38" t="n">
-        <v>632250</v>
+        <v>206015</v>
       </c>
     </row>
     <row r="39">
@@ -1281,19 +1281,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.9836415362731152</v>
+        <v>0.9822190611664295</v>
       </c>
       <c r="C39" t="n">
-        <v>0.9836415362731152</v>
+        <v>0.9822190611664295</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9836415362731152</v>
+        <v>0.9822190611664295</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9836415362731152</v>
+        <v>0.9822190611664295</v>
       </c>
       <c r="F39" t="n">
-        <v>632250</v>
+        <v>206015</v>
       </c>
     </row>
     <row r="40">
@@ -1303,19 +1303,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.5483091787439613</v>
+        <v>0.4918091168091168</v>
       </c>
       <c r="C40" t="n">
-        <v>0.5071020522214288</v>
+        <v>0.4992769342010123</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5099601794869636</v>
+        <v>0.4955148905633298</v>
       </c>
       <c r="E40" t="n">
         <v>4218</v>
       </c>
       <c r="F40" t="n">
-        <v>632250</v>
+        <v>206015</v>
       </c>
     </row>
     <row r="41">
@@ -1325,19 +1325,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.9726545767735698</v>
+        <v>0.9675277504224873</v>
       </c>
       <c r="C41" t="n">
-        <v>0.9836415362731152</v>
+        <v>0.9822190611664295</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9775877354750283</v>
+        <v>0.9748180563998365</v>
       </c>
       <c r="E41" t="n">
         <v>4218</v>
       </c>
       <c r="F41" t="n">
-        <v>632250</v>
+        <v>206015</v>
       </c>
     </row>
     <row r="42">
@@ -1347,19 +1347,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.9855072463768116</v>
+        <v>0.9881432297842068</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9980750721847931</v>
+        <v>0.9997600767754319</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9917513448894202</v>
+        <v>0.99391771019678</v>
       </c>
       <c r="E42" t="n">
-        <v>4156</v>
+        <v>4168</v>
       </c>
       <c r="F42" t="n">
-        <v>672534</v>
+        <v>234050</v>
       </c>
     </row>
     <row r="43">
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.1111111111111111</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.01612903225806452</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.02816901408450704</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F43" t="n">
-        <v>672534</v>
+        <v>234050</v>
       </c>
     </row>
     <row r="44">
@@ -1391,19 +1391,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.9836415362731152</v>
+        <v>0.9879089615931721</v>
       </c>
       <c r="C44" t="n">
-        <v>0.9836415362731152</v>
+        <v>0.9879089615931721</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9836415362731152</v>
+        <v>0.9879089615931721</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9836415362731152</v>
+        <v>0.9879089615931721</v>
       </c>
       <c r="F44" t="n">
-        <v>672534</v>
+        <v>234050</v>
       </c>
     </row>
     <row r="45">
@@ -1413,19 +1413,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.5483091787439613</v>
+        <v>0.4940716148921034</v>
       </c>
       <c r="C45" t="n">
-        <v>0.5071020522214288</v>
+        <v>0.4998800383877159</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5099601794869636</v>
+        <v>0.49695885509839</v>
       </c>
       <c r="E45" t="n">
         <v>4218</v>
       </c>
       <c r="F45" t="n">
-        <v>672534</v>
+        <v>234050</v>
       </c>
     </row>
     <row r="46">
@@ -1435,19 +1435,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.9726545767735698</v>
+        <v>0.9764298202324735</v>
       </c>
       <c r="C46" t="n">
-        <v>0.9836415362731152</v>
+        <v>0.9879089615931721</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9775877354750283</v>
+        <v>0.9821358501897058</v>
       </c>
       <c r="E46" t="n">
         <v>4218</v>
       </c>
       <c r="F46" t="n">
-        <v>672534</v>
+        <v>234050</v>
       </c>
     </row>
     <row r="47">
@@ -1457,19 +1457,19 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.9812262357414449</v>
+        <v>0.9878686964795433</v>
       </c>
       <c r="C47" t="n">
-        <v>0.9987905176584422</v>
+        <v>0.9971188475390156</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9899304723087988</v>
+        <v>0.9924722189030948</v>
       </c>
       <c r="E47" t="n">
-        <v>4134</v>
+        <v>4165</v>
       </c>
       <c r="F47" t="n">
-        <v>732250</v>
+        <v>237050</v>
       </c>
     </row>
     <row r="48">
@@ -1479,19 +1479,19 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.5</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C48" t="n">
-        <v>0.05952380952380952</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="D48" t="n">
-        <v>0.1063829787234043</v>
+        <v>0.05970149253731343</v>
       </c>
       <c r="E48" t="n">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="F48" t="n">
-        <v>732250</v>
+        <v>237050</v>
       </c>
     </row>
     <row r="49">
@@ -1501,19 +1501,19 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.9800853485064012</v>
+        <v>0.9850640113798008</v>
       </c>
       <c r="C49" t="n">
-        <v>0.9800853485064012</v>
+        <v>0.9850640113798008</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9800853485064012</v>
+        <v>0.9850640113798008</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9800853485064012</v>
+        <v>0.9850640113798008</v>
       </c>
       <c r="F49" t="n">
-        <v>732250</v>
+        <v>237050</v>
       </c>
     </row>
     <row r="50">
@@ -1523,19 +1523,19 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.7406131178707225</v>
+        <v>0.5653629196683431</v>
       </c>
       <c r="C50" t="n">
-        <v>0.5291571635911259</v>
+        <v>0.5174273482978097</v>
       </c>
       <c r="D50" t="n">
-        <v>0.5481567255161015</v>
+        <v>0.5260868557202041</v>
       </c>
       <c r="E50" t="n">
         <v>4218</v>
       </c>
       <c r="F50" t="n">
-        <v>732250</v>
+        <v>237050</v>
       </c>
     </row>
     <row r="51">
@@ -1545,19 +1545,19 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.9716427829670775</v>
+        <v>0.9772509600305183</v>
       </c>
       <c r="C51" t="n">
-        <v>0.9800853485064012</v>
+        <v>0.9850640113798008</v>
       </c>
       <c r="D51" t="n">
-        <v>0.972334931896003</v>
+        <v>0.9807517711796745</v>
       </c>
       <c r="E51" t="n">
         <v>4218</v>
       </c>
       <c r="F51" t="n">
-        <v>732250</v>
+        <v>237050</v>
       </c>
     </row>
     <row r="52">
@@ -1567,19 +1567,19 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.9727858677488661</v>
+        <v>0.9843267632391356</v>
       </c>
       <c r="C52" t="n">
-        <v>0.9963325183374083</v>
+        <v>0.9983140655105973</v>
       </c>
       <c r="D52" t="n">
-        <v>0.9844184080202923</v>
+        <v>0.9912710749730957</v>
       </c>
       <c r="E52" t="n">
-        <v>4090</v>
+        <v>4152</v>
       </c>
       <c r="F52" t="n">
-        <v>740009</v>
+        <v>237280</v>
       </c>
     </row>
     <row r="53">
@@ -1589,19 +1589,19 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.4827586206896552</v>
+        <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>0.109375</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>0.178343949044586</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="F53" t="n">
-        <v>740009</v>
+        <v>237280</v>
       </c>
     </row>
     <row r="54">
@@ -1611,19 +1611,19 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.9694167852062588</v>
+        <v>0.9826932195353248</v>
       </c>
       <c r="C54" t="n">
-        <v>0.9694167852062588</v>
+        <v>0.9826932195353248</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9694167852062588</v>
+        <v>0.9826932195353248</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9694167852062588</v>
+        <v>0.9826932195353248</v>
       </c>
       <c r="F54" t="n">
-        <v>740009</v>
+        <v>237280</v>
       </c>
     </row>
     <row r="55">
@@ -1633,19 +1633,19 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.7277722442192607</v>
+        <v>0.4921633816195678</v>
       </c>
       <c r="C55" t="n">
-        <v>0.5528537591687042</v>
+        <v>0.4991570327552987</v>
       </c>
       <c r="D55" t="n">
-        <v>0.5813811785324392</v>
+        <v>0.4956355374865479</v>
       </c>
       <c r="E55" t="n">
         <v>4218</v>
       </c>
       <c r="F55" t="n">
-        <v>740009</v>
+        <v>237280</v>
       </c>
     </row>
     <row r="56">
@@ -1655,19 +1655,1229 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.9579154344573585</v>
+        <v>0.9689247797460624</v>
       </c>
       <c r="C56" t="n">
-        <v>0.9694167852062588</v>
+        <v>0.9826932195353248</v>
       </c>
       <c r="D56" t="n">
-        <v>0.9599571631770276</v>
+        <v>0.9757604322637016</v>
       </c>
       <c r="E56" t="n">
         <v>4218</v>
       </c>
       <c r="F56" t="n">
+        <v>237280</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.9704113543420736</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.9926181102362205</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.981389125410534</v>
+      </c>
+      <c r="E57" t="n">
+        <v>4064</v>
+      </c>
+      <c r="F57" t="n">
+        <v>253400</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.5081967213114754</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.2012987012987013</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.2883720930232558</v>
+      </c>
+      <c r="E58" t="n">
+        <v>154</v>
+      </c>
+      <c r="F58" t="n">
+        <v>253400</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.9637268847795164</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.9637268847795164</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.9637268847795164</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.9637268847795164</v>
+      </c>
+      <c r="F59" t="n">
+        <v>253400</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.7393040378267746</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.5969584057674608</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.6348806092168949</v>
+      </c>
+      <c r="E60" t="n">
+        <v>4218</v>
+      </c>
+      <c r="F60" t="n">
+        <v>253400</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.9535358082333225</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.9637268847795164</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.956086938832146</v>
+      </c>
+      <c r="E61" t="n">
+        <v>4218</v>
+      </c>
+      <c r="F61" t="n">
+        <v>253400</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.992406264831514</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.9990444338270426</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.9957142857142857</v>
+      </c>
+      <c r="E62" t="n">
+        <v>4186</v>
+      </c>
+      <c r="F62" t="n">
+        <v>307028</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>32</v>
+      </c>
+      <c r="F63" t="n">
+        <v>307028</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.9914651493598862</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.9914651493598862</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.9914651493598862</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.9914651493598862</v>
+      </c>
+      <c r="F64" t="n">
+        <v>307028</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.496203132415757</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.4995222169135213</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.4978571428571428</v>
+      </c>
+      <c r="E65" t="n">
+        <v>4218</v>
+      </c>
+      <c r="F65" t="n">
+        <v>307028</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.9848773410584916</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.9914651493598862</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.9881602655286864</v>
+      </c>
+      <c r="E66" t="n">
+        <v>4218</v>
+      </c>
+      <c r="F66" t="n">
+        <v>307028</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.9759809750297265</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.9968423609424338</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.9863013698630136</v>
+      </c>
+      <c r="E67" t="n">
+        <v>4117</v>
+      </c>
+      <c r="F67" t="n">
+        <v>408008</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>101</v>
+      </c>
+      <c r="F68" t="n">
+        <v>408008</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.972972972972973</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.972972972972973</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.972972972972973</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.972972972972973</v>
+      </c>
+      <c r="F69" t="n">
+        <v>408008</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.4879904875148632</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.4984211804712169</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.4931506849315068</v>
+      </c>
+      <c r="E70" t="n">
+        <v>4218</v>
+      </c>
+      <c r="F70" t="n">
+        <v>408008</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.9526111128964874</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.972972972972973</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.9626843858999591</v>
+      </c>
+      <c r="E71" t="n">
+        <v>4218</v>
+      </c>
+      <c r="F71" t="n">
+        <v>408008</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.9488038277511962</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.9929894842263395</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.970393931979447</v>
+      </c>
+      <c r="E72" t="n">
+        <v>3994</v>
+      </c>
+      <c r="F72" t="n">
+        <v>408011</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.2631578947368421</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.04464285714285714</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.07633587786259542</v>
+      </c>
+      <c r="E73" t="n">
+        <v>224</v>
+      </c>
+      <c r="F73" t="n">
+        <v>408011</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.9426268373636795</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.9426268373636795</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.9426268373636795</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.9426268373636795</v>
+      </c>
+      <c r="F74" t="n">
+        <v>408011</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.6059808612440192</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.5188161706845983</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.5233649049210212</v>
+      </c>
+      <c r="E75" t="n">
+        <v>4218</v>
+      </c>
+      <c r="F75" t="n">
+        <v>408011</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.9123920949405714</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.9426268373636795</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.9229143198120277</v>
+      </c>
+      <c r="E76" t="n">
+        <v>4218</v>
+      </c>
+      <c r="F76" t="n">
+        <v>408011</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.9940603468757424</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.9990448901623686</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.9965463856139097</v>
+      </c>
+      <c r="E77" t="n">
+        <v>4188</v>
+      </c>
+      <c r="F77" t="n">
+        <v>447050</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.2564102564102564</v>
+      </c>
+      <c r="E78" t="n">
+        <v>30</v>
+      </c>
+      <c r="F78" t="n">
+        <v>447050</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.9931247036510195</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.9931247036510195</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.9931247036510195</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.9931247036510195</v>
+      </c>
+      <c r="F79" t="n">
+        <v>447050</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.7748079512156489</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.5828557784145176</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.626478321012083</v>
+      </c>
+      <c r="E80" t="n">
+        <v>4218</v>
+      </c>
+      <c r="F80" t="n">
+        <v>447050</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.9909415361266657</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.9931247036510195</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.9912822595171553</v>
+      </c>
+      <c r="E81" t="n">
+        <v>4218</v>
+      </c>
+      <c r="F81" t="n">
+        <v>447050</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.9857414448669202</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.9980750721847931</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.9918699186991869</v>
+      </c>
+      <c r="E82" t="n">
+        <v>4156</v>
+      </c>
+      <c r="F82" t="n">
+        <v>632250</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.03225806451612903</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="E83" t="n">
+        <v>62</v>
+      </c>
+      <c r="F83" t="n">
+        <v>632250</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.9838786154575628</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.9838786154575628</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.9838786154575628</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.9838786154575628</v>
+      </c>
+      <c r="F84" t="n">
+        <v>632250</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.5928707224334601</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.515166568350461</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.5237127371273712</v>
+      </c>
+      <c r="E85" t="n">
+        <v>4218</v>
+      </c>
+      <c r="F85" t="n">
+        <v>632250</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.9741919025289048</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.9838786154575628</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.9781071186719453</v>
+      </c>
+      <c r="E86" t="n">
+        <v>4218</v>
+      </c>
+      <c r="F86" t="n">
+        <v>632250</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.9959523809523809</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.9990446620491999</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.9974961249552879</v>
+      </c>
+      <c r="E87" t="n">
+        <v>4187</v>
+      </c>
+      <c r="F87" t="n">
+        <v>641160</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.4516129032258064</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="E88" t="n">
+        <v>31</v>
+      </c>
+      <c r="F88" t="n">
+        <v>641160</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.9950213371266002</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.9950213371266002</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.9950213371266002</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.9950213371266002</v>
+      </c>
+      <c r="F89" t="n">
+        <v>641160</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.8868650793650794</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.7253287826375032</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.7844623481919297</v>
+      </c>
+      <c r="E90" t="n">
+        <v>4218</v>
+      </c>
+      <c r="F90" t="n">
+        <v>641160</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.9943489165857589</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.9950213371266002</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.9943647607638871</v>
+      </c>
+      <c r="E91" t="n">
+        <v>4218</v>
+      </c>
+      <c r="F91" t="n">
+        <v>641160</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.9857414448669202</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.9980750721847931</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.9918699186991869</v>
+      </c>
+      <c r="E92" t="n">
+        <v>4156</v>
+      </c>
+      <c r="F92" t="n">
+        <v>672534</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.03225806451612903</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="E93" t="n">
+        <v>62</v>
+      </c>
+      <c r="F93" t="n">
+        <v>672534</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0.9838786154575628</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.9838786154575628</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.9838786154575628</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.9838786154575628</v>
+      </c>
+      <c r="F94" t="n">
+        <v>672534</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>0.5928707224334601</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.515166568350461</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.5237127371273712</v>
+      </c>
+      <c r="E95" t="n">
+        <v>4218</v>
+      </c>
+      <c r="F95" t="n">
+        <v>672534</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0.9741919025289048</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.9838786154575628</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.9781071186719453</v>
+      </c>
+      <c r="E96" t="n">
+        <v>4218</v>
+      </c>
+      <c r="F96" t="n">
+        <v>672534</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>0.9739980916030534</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.9960966089290071</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.9849234109275118</v>
+      </c>
+      <c r="E97" t="n">
+        <v>4099</v>
+      </c>
+      <c r="F97" t="n">
+        <v>732250</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>0.3846153846153846</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.08403361344537816</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.1379310344827586</v>
+      </c>
+      <c r="E98" t="n">
+        <v>119</v>
+      </c>
+      <c r="F98" t="n">
+        <v>732250</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>0.9703651019440493</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.9703651019440493</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.9703651019440493</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.9703651019440493</v>
+      </c>
+      <c r="F99" t="n">
+        <v>732250</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>0.679306738109219</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.5400651111871926</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.5614272227051352</v>
+      </c>
+      <c r="E100" t="n">
+        <v>4218</v>
+      </c>
+      <c r="F100" t="n">
+        <v>732250</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>0.9573701773945346</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.9703651019440493</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.9610277037684494</v>
+      </c>
+      <c r="E101" t="n">
+        <v>4218</v>
+      </c>
+      <c r="F101" t="n">
+        <v>732250</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>0.9727793696275072</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.9960880195599022</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.9842957236047355</v>
+      </c>
+      <c r="E102" t="n">
+        <v>4090</v>
+      </c>
+      <c r="F102" t="n">
         <v>740009</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.109375</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.1772151898734177</v>
+      </c>
+      <c r="E103" t="n">
+        <v>128</v>
+      </c>
+      <c r="F103" t="n">
+        <v>740009</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>0.9691797060218112</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.9691797060218112</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.9691797060218112</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.9691797060218112</v>
+      </c>
+      <c r="F104" t="n">
+        <v>740009</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>0.7197230181470869</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.5527315097799511</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.5807554567390766</v>
+      </c>
+      <c r="E105" t="n">
+        <v>4218</v>
+      </c>
+      <c r="F105" t="n">
+        <v>740009</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>0.9574208049098714</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.9691797060218112</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.959803948280504</v>
+      </c>
+      <c r="E106" t="n">
+        <v>4218</v>
+      </c>
+      <c r="F106" t="n">
+        <v>740009</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>0.9919220717510098</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.9980874970117141</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.9949952335557674</v>
+      </c>
+      <c r="E107" t="n">
+        <v>4183</v>
+      </c>
+      <c r="F107" t="n">
+        <v>740011</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.02857142857142857</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.04545454545454546</v>
+      </c>
+      <c r="E108" t="n">
+        <v>35</v>
+      </c>
+      <c r="F108" t="n">
+        <v>740011</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>0.9900426742532006</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.9900426742532006</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.9900426742532006</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.9900426742532006</v>
+      </c>
+      <c r="F109" t="n">
+        <v>740011</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>macro avg</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>0.5515165914310605</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.5133294627915713</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.5202248895051564</v>
+      </c>
+      <c r="E110" t="n">
+        <v>4218</v>
+      </c>
+      <c r="F110" t="n">
+        <v>740011</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>weighted avg</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>0.984613303703974</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.9900426742532006</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.9871161619380473</v>
+      </c>
+      <c r="E111" t="n">
+        <v>4218</v>
+      </c>
+      <c r="F111" t="n">
+        <v>740011</v>
       </c>
     </row>
   </sheetData>
